--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517" activeTab="1"/>
+    <workbookView windowHeight="17300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
+    <sheet name="公共服" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +57,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -99,6 +103,9 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
 </sst>
 </file>
@@ -115,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +143,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -144,14 +151,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -159,7 +166,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -167,7 +174,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -175,7 +182,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +190,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -191,14 +198,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -206,7 +213,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +221,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -222,14 +229,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -237,42 +244,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -733,70 +740,70 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1094,213 +1101,216 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H12"/>
+  <dimension ref="B3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="5" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+    <row r="3" ht="13.5" spans="3:8">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+    <row r="4" ht="13.5" spans="3:8">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+    <row r="5" ht="13.5" spans="3:8">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    <row r="6" s="3" customFormat="1" spans="2:8">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4">
         <v>30002</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4">
         <v>30003</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4">
         <v>30004</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,177 +1324,177 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="5" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+    <row r="3" ht="13.5" spans="3:8">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+    <row r="4" ht="13.5" spans="3:8">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+    <row r="5" ht="13.5" spans="3:8">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
+    <row r="6" s="3" customFormat="1" spans="3:8">
+      <c r="C6" s="4">
         <v>300</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4">
         <v>30300</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
-      <c r="C7" s="5">
+    <row r="7" s="3" customFormat="1" spans="3:8">
+      <c r="C7" s="4">
         <v>301</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4">
         <v>30301</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:8">
-      <c r="C8" s="5">
+    <row r="8" s="3" customFormat="1" spans="3:8">
+      <c r="C8" s="4">
         <v>302</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4">
         <v>30302</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:8">
-      <c r="C9" s="5">
+    <row r="9" s="3" customFormat="1" spans="3:8">
+      <c r="C9" s="4">
         <v>303</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4">
         <v>30303</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:8">
-      <c r="C10" s="5">
+    <row r="10" s="3" customFormat="1" spans="3:8">
+      <c r="C10" s="4">
         <v>304</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4">
         <v>30304</v>
       </c>
     </row>
@@ -1493,4 +1503,128 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="11.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="14.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4">
+        <v>401</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <v>402</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4">
+        <v>30002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>